--- a/teaching/traditional_assets/database/data/singapore/singapore_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/singapore/singapore_brokerage_investment_banking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0159</v>
+        <v>0.0405</v>
       </c>
       <c r="E2">
-        <v>-0.0372</v>
+        <v>0.0746</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,34 +603,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01834345546612988</v>
+        <v>0.00689087054927961</v>
       </c>
       <c r="J2">
-        <v>0.01648274355642389</v>
+        <v>0.006463780135027384</v>
       </c>
       <c r="K2">
-        <v>43.7</v>
+        <v>80.24000000000001</v>
       </c>
       <c r="L2">
-        <v>0.1971132160577357</v>
+        <v>0.2644780645373941</v>
       </c>
       <c r="M2">
-        <v>14.9</v>
+        <v>13</v>
       </c>
       <c r="N2">
-        <v>0.02015692640692641</v>
+        <v>0.01003861003861004</v>
       </c>
       <c r="O2">
-        <v>0.3409610983981693</v>
+        <v>0.1620139581256231</v>
       </c>
       <c r="P2">
-        <v>14.9</v>
+        <v>13</v>
       </c>
       <c r="Q2">
-        <v>0.02015692640692641</v>
+        <v>0.01003861003861004</v>
       </c>
       <c r="R2">
-        <v>0.3409610983981693</v>
+        <v>0.1620139581256231</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,67 +639,70 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>388.4</v>
+        <v>428.9</v>
       </c>
       <c r="V2">
-        <v>0.5254329004329004</v>
+        <v>0.3311969111969112</v>
       </c>
       <c r="W2">
-        <v>0.04147290500142355</v>
+        <v>-0.4330485471761967</v>
       </c>
       <c r="X2">
-        <v>0.06024513039423882</v>
+        <v>0.03910292070551553</v>
       </c>
       <c r="Y2">
-        <v>-0.01877222539281526</v>
+        <v>-0.4721514678817123</v>
       </c>
       <c r="Z2">
-        <v>0.1730184440833534</v>
+        <v>0.2260567037852212</v>
       </c>
       <c r="AA2">
-        <v>0.002851818644357381</v>
+        <v>0.3487980007909962</v>
       </c>
       <c r="AB2">
-        <v>0.04207603616359104</v>
+        <v>0.02989665928236888</v>
       </c>
       <c r="AC2">
-        <v>-0.03922421751923366</v>
+        <v>0.3189013415086273</v>
       </c>
       <c r="AD2">
-        <v>713</v>
+        <v>1113.4</v>
       </c>
       <c r="AE2">
-        <v>6.366279615795024</v>
+        <v>0.03689392027029651</v>
       </c>
       <c r="AF2">
-        <v>719.3662796157951</v>
+        <v>1113.43689392027</v>
       </c>
       <c r="AG2">
-        <v>330.9662796157951</v>
+        <v>684.5368939202704</v>
       </c>
       <c r="AH2">
-        <v>0.4932009533397997</v>
+        <v>0.4623068583324608</v>
       </c>
       <c r="AI2">
-        <v>0.3965490609131168</v>
+        <v>0.4869320952883626</v>
       </c>
       <c r="AJ2">
-        <v>0.3092662195772199</v>
+        <v>0.345806585379985</v>
       </c>
       <c r="AK2">
-        <v>0.2321484938992789</v>
+        <v>0.3684789251699326</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-0.137</v>
       </c>
       <c r="AN2">
-        <v>133.5205992509363</v>
+        <v>29300</v>
       </c>
       <c r="AP2">
-        <v>61.9787040479017</v>
+        <v>18014.12878737554</v>
+      </c>
+      <c r="AQ2">
+        <v>-15.03649635036496</v>
       </c>
     </row>
     <row r="3">
@@ -710,124 +713,240 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Raffles Financial Group Limited (CNSX:RICH)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Brokerage &amp; Investment Banking</t>
+        </is>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.5823457426033262</v>
+      </c>
+      <c r="J3">
+        <v>0.5823457426033262</v>
+      </c>
+      <c r="K3">
+        <v>-3.16</v>
+      </c>
+      <c r="L3">
+        <v>-0.8802228412256268</v>
+      </c>
+      <c r="M3">
+        <v>-0</v>
+      </c>
+      <c r="N3">
+        <v>-0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>-0</v>
+      </c>
+      <c r="Q3">
+        <v>-0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>15.6</v>
+      </c>
+      <c r="V3">
+        <v>0.03941384537645275</v>
+      </c>
+      <c r="W3">
+        <v>-0.9432835820895522</v>
+      </c>
+      <c r="X3">
+        <v>0.02898775629471605</v>
+      </c>
+      <c r="Y3">
+        <v>-0.9722713383842683</v>
+      </c>
+      <c r="Z3">
+        <v>1.197906931479313</v>
+      </c>
+      <c r="AA3">
+        <v>0.6975960015819923</v>
+      </c>
+      <c r="AB3">
+        <v>0.02898737374878306</v>
+      </c>
+      <c r="AC3">
+        <v>0.6686086278332093</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0.03689392027029651</v>
+      </c>
+      <c r="AF3">
+        <v>0.03689392027029651</v>
+      </c>
+      <c r="AG3">
+        <v>-15.5631060797297</v>
+      </c>
+      <c r="AH3">
+        <v>9.320485492119819e-05</v>
+      </c>
+      <c r="AI3">
+        <v>0.001554285931184563</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.04093002632983069</v>
+      </c>
+      <c r="AK3">
+        <v>-1.912659330725639</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>-0.137</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>-409.5554231507817</v>
+      </c>
+      <c r="AQ3">
+        <v>-15.03649635036496</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>UOB-Kay Hian Holdings Limited (SGX:U10)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D3">
-        <v>-0.0159</v>
-      </c>
-      <c r="E3">
-        <v>-0.0372</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0.01834345546612988</v>
-      </c>
-      <c r="J3">
-        <v>0.01648274355642389</v>
-      </c>
-      <c r="K3">
-        <v>43.7</v>
-      </c>
-      <c r="L3">
-        <v>0.1971132160577357</v>
-      </c>
-      <c r="M3">
-        <v>14.9</v>
-      </c>
-      <c r="N3">
-        <v>0.02015692640692641</v>
-      </c>
-      <c r="O3">
-        <v>0.3409610983981693</v>
-      </c>
-      <c r="P3">
-        <v>14.9</v>
-      </c>
-      <c r="Q3">
-        <v>0.02015692640692641</v>
-      </c>
-      <c r="R3">
-        <v>0.3409610983981693</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>388.4</v>
-      </c>
-      <c r="V3">
-        <v>0.5254329004329004</v>
-      </c>
-      <c r="W3">
-        <v>0.04147290500142355</v>
-      </c>
-      <c r="X3">
-        <v>0.06024513039423882</v>
-      </c>
-      <c r="Y3">
-        <v>-0.01877222539281526</v>
-      </c>
-      <c r="Z3">
-        <v>0.1730184440833534</v>
-      </c>
-      <c r="AA3">
-        <v>0.002851818644357381</v>
-      </c>
-      <c r="AB3">
-        <v>0.04207603616359104</v>
-      </c>
-      <c r="AC3">
-        <v>-0.03922421751923366</v>
-      </c>
-      <c r="AD3">
-        <v>713</v>
-      </c>
-      <c r="AE3">
-        <v>6.366279615795024</v>
-      </c>
-      <c r="AF3">
-        <v>719.3662796157951</v>
-      </c>
-      <c r="AG3">
-        <v>330.9662796157951</v>
-      </c>
-      <c r="AH3">
-        <v>0.4932009533397997</v>
-      </c>
-      <c r="AI3">
-        <v>0.3965490609131168</v>
-      </c>
-      <c r="AJ3">
-        <v>0.3092662195772199</v>
-      </c>
-      <c r="AK3">
-        <v>0.2321484938992789</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>133.5205992509363</v>
-      </c>
-      <c r="AP3">
-        <v>61.9787040479017</v>
+      <c r="D4">
+        <v>0.0405</v>
+      </c>
+      <c r="E4">
+        <v>0.0746</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>83.40000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.2781854569713142</v>
+      </c>
+      <c r="M4">
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <v>0.01445729537366548</v>
+      </c>
+      <c r="O4">
+        <v>0.1558752997601918</v>
+      </c>
+      <c r="P4">
+        <v>13</v>
+      </c>
+      <c r="Q4">
+        <v>0.01445729537366548</v>
+      </c>
+      <c r="R4">
+        <v>0.1558752997601918</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>413.3</v>
+      </c>
+      <c r="V4">
+        <v>0.4596307829181495</v>
+      </c>
+      <c r="W4">
+        <v>0.07718648773715873</v>
+      </c>
+      <c r="X4">
+        <v>0.04921808511631501</v>
+      </c>
+      <c r="Y4">
+        <v>0.02796840262084373</v>
+      </c>
+      <c r="Z4">
+        <v>0.2238817115973415</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0.03080594481595472</v>
+      </c>
+      <c r="AC4">
+        <v>-0.03080594481595472</v>
+      </c>
+      <c r="AD4">
+        <v>1113.4</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>1113.4</v>
+      </c>
+      <c r="AG4">
+        <v>700.1000000000001</v>
+      </c>
+      <c r="AH4">
+        <v>0.5532147470933121</v>
+      </c>
+      <c r="AI4">
+        <v>0.4920235096557515</v>
+      </c>
+      <c r="AJ4">
+        <v>0.4377540173826049</v>
+      </c>
+      <c r="AK4">
+        <v>0.3785142733564014</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
